--- a/very_large_out.xlsx
+++ b/very_large_out.xlsx
@@ -485,11 +485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2104977744"/>
-        <c:axId val="-2104979920"/>
+        <c:axId val="-1115700448"/>
+        <c:axId val="-1115701536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2104977744"/>
+        <c:axId val="-1115700448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,12 +499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104979920"/>
+        <c:crossAx val="-1115701536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104979920"/>
+        <c:axId val="-1115701536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7000"/>
@@ -517,7 +517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104977744"/>
+        <c:crossAx val="-1115700448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -814,11 +814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2104985360"/>
-        <c:axId val="-2104984272"/>
+        <c:axId val="-1115697184"/>
+        <c:axId val="-1115704800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2104985360"/>
+        <c:axId val="-1115697184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,12 +828,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104984272"/>
+        <c:crossAx val="-1115704800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104984272"/>
+        <c:axId val="-1115704800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -845,7 +845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104985360"/>
+        <c:crossAx val="-1115697184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8540,6 +8540,5882 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>why??</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LW!$E$81:$E$1055</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="975"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1666666666666679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>48.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>53.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>54.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>58.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>59.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>61.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>64.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>73.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>74.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>75.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>76.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>78.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>79.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>81.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>84.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>85.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>86.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>88.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>90.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>91.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>93.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>94.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>95.833333333333343</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>96.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>98.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>99.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>100.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>101.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>103.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>104.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>105.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>106.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>108.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>109.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>110.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>111.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>113.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>114.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>115.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>116.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>118.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>119.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>120.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>121.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>123.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>124.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>125.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>126.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>128.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>129.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>130.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>131.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>134.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>135.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>136.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>138.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>139.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>140.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>141.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>143.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>144.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>145.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>146.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>148.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>149.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>150.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>151.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>153.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>154.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>155.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>156.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>158.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>159.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>160.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>161.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>163.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>164.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>165.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>166.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>168.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>169.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>170.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>171.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>173.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>174.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>175.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>176.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>178.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>179.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>180.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>181.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>183.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>184.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>185.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>186.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>188.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>189.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>190.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>191.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>193.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>194.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>195.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>196.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>197.5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>198.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>199.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>200.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>201.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>202.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>203.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>204.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>205.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>206.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>207.5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>208.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>209.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>210.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>211.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>212.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>213.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>214.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>215.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>216.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>217.5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>218.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>219.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>220.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>221.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>222.5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>223.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>224.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>225.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>226.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>228.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>229.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>230.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>231.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>233.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>234.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>235.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>236.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>238.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>239.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>240.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>241.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>243.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>244.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>245.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>246.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>248.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>249.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>250.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>251.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>252.5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>253.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>254.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>255.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>256.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>257.5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>258.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>259.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>260.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>261.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>263.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>264.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>265.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>266.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>268.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>269.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>270.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>271.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>272.5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>273.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>274.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>275.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>276.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>278.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>279.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>280.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>281.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>283.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>284.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>285.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>286.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>287.5</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>288.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>289.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>290.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>291.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>293.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>294.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>295.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>296.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>297.5</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>298.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>299.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>300.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>301.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>302.5</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>303.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>304.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>305.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>306.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>307.5</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>308.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>309.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>310.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>311.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>312.5</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>313.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>314.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>315.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>316.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>317.5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>318.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>319.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>320.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>321.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>322.5</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>323.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>324.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>325.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>326.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>327.5</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>328.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>329.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>330.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>331.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>332.5</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>333.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>334.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>335.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>336.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>337.5</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>338.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>339.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>340.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>341.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>342.5</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>343.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>344.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>345.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>346.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>347.5</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>348.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>349.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>350.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>351.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>352.5</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>353.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>354.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>355.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>356.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>357.5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>358.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>359.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>360.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>361.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>362.5</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>363.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>364.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>365.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>366.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>367.5</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>368.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>369.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>370.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>371.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>372.5</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>373.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>374.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>375.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>376.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>377.5</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>378.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>379.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>380.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>381.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>382.5</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>383.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>384.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>385.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>386.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>387.5</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>388.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>389.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>390.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>391.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>392.5</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>393.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>394.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>395.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>396.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>397.5</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>398.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>399.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>400.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>401.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>402.5</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>403.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>404.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>405.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>406.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>407.5</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>408.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>409.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>410.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>411.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>412.5</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>413.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>414.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>415.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>416.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>417.5</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>418.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>419.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>420.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>421.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>422.5</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>423.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>424.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>425.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>426.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>428.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>429.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>430.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>431.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>432.5</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>433.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>434.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>435.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>436.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>438.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>439.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>440.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>441.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>442.5</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>443.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>444.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>445.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>446.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>447.5</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>448.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>449.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>450.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>451.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>452.5</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>453.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>454.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>455.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>456.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>457.5</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>458.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>459.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>460.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>461.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>463.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>464.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>465.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>466.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>467.5</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>468.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>469.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>470.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>471.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>472.5</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>473.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>474.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>475.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>476.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>477.5</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>478.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>479.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>480.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>481.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>482.5</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>483.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>484.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>485.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>486.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>487.5</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>488.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>489.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>490.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>491.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>492.5</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>493.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>494.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>495.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>496.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>497.5</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>498.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>499.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>500.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>501.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>502.5</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>503.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>504.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>505.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>506.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>507.5</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>508.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>509.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>510.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>511.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>512.5</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>513.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>514.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>515.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>516.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>518.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>519.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>520.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>521.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>523.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>524.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>525.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>526.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>527.5</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>528.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>529.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>530.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>531.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>532.5</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>533.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>534.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>535.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>536.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>537.5</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>538.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>539.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>540.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>541.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>542.5</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>543.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>544.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>545.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>546.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>547.5</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>548.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>549.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>550.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>551.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>552.5</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>553.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>554.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>555.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>556.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>557.5</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>558.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>559.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>560.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>561.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>562.5</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>563.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>564.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>565.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>566.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>567.5</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>568.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>569.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>570.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>571.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>572.5</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>573.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>574.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>575.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>576.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>577.5</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>578.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>579.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>580.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>581.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>583.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>584.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>585.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>586.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>587.5</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>588.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>589.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>590.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>591.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>592.5</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>593.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>594.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>595.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>596.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>597.5</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>598.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>599.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>600.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>601.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>602.5</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>603.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>604.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>605.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>606.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>607.5</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>608.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>609.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>610.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>611.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>612.5</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>613.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>614.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>615.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>616.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>617.5</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>618.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>619.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>620.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>621.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>622.5</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>623.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>624.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>625.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>626.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>627.5</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>628.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>629.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>630.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>631.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>632.5</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>633.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>634.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>635.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>636.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>637.5</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>638.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>639.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>640.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>641.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>642.5</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>643.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>644.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>645.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>646.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>647.5</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>648.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>649.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>650.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>651.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>652.5</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>653.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>654.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>655.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>656.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>657.5</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>658.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>659.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>660.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>661.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>662.5</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>663.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>664.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>665.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>666.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>667.5</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>668.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>669.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>670.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>671.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>672.5</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>673.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>674.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>675.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>676.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>677.5</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>678.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>679.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>680.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>681.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>682.5</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>683.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>684.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>685.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>686.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>687.5</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>688.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>689.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>690.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>691.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>692.5</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>693.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>694.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>695.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>696.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>697.5</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>698.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>699.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>700.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>701.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>702.5</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>703.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>704.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>705.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>706.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>707.5</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>708.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>709.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>710.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>711.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>712.5</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>713.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>714.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>715.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>716.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>717.5</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>718.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>719.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>720.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>721.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>722.5</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>723.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>724.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>725.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>726.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>727.5</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>728.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>729.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>730.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>731.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>732.5</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>733.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>734.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>735.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>736.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>737.5</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>738.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>739.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>740.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>741.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>742.5</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>743.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>744.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>745.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>746.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>747.5</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>748.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>749.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>750.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>751.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>752.5</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>753.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>754.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>755.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>756.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>757.5</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>758.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>759.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>760.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>761.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>762.5</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>763.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>764.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>765.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>766.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>767.5</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>768.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>769.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>770.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>771.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>772.5</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>773.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>774.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>775.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>776.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>777.5</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>778.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>779.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>780.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>781.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>782.5</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>783.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>784.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>785.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>786.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>787.5</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>788.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>789.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>790.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>791.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>792.5</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>793.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>794.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>795.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>796.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>797.5</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>798.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>799.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>800.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>801.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>802.5</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>803.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>804.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>805.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>806.66666666666674</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>807.5</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>808.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>809.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>810.83333333333337</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>811.66666666666674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LW!$B$81:$B$1055</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="975"/>
+                <c:pt idx="0">
+                  <c:v>89851.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11055.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7283.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6918.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6487.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6045.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5713.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5623.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5290.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5103.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4994.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5008.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4939.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4774.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4652.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4603.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4593.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4521.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4465.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4390.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4319.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4338.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4353.83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4302.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4183.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4226.07</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4188.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4194.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4099.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4045.28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4066.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4047.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4089.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4073.93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4070.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4056.85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4059.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3998.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3933.92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3939.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3911.97</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3925.44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3880.97</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3875.79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3826.21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3869.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3826.34</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3866.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3874.98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3865.85</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3876.48</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3812.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3828.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3823.26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3822.65</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3732.78</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3790.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3724.51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3729.18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3727.42</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3731.32</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3747.37</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3781.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3725.42</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3750.82</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3739.53</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3772.33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3739.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3738.97</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3775.37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3756.39</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3726.46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3751.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3770.76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3758.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3734.04</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3751.37</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3732.72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3755.74</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3736.16</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3729.54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3795.15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3731.56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3705.14</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3739.92</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3741.24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3783.54</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3774.05</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3747.61</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3680.74</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3719.92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3739.09</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3727.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3729.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3751.42</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3744.11</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3717.32</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3765.71</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3763.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3776.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3775.36</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3757.55</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3743.11</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3770.56</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3745.59</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3735.32</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3709.41</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3712.54</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3608.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3579.05</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3548.82</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3498.33</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3470.01</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3510.32</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3495.47</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3528.05</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3535.77</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3531.65</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3531.55</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3537.97</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3508.77</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3568.38</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3517.01</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3556.87</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3536.53</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3540.22</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3555.19</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3551.11</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3551.77</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3543.95</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3527.93</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3501.65</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3518.52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3545.82</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3472.46</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3496.61</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3482.39</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3537.76</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3529.39</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3531.69</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3569.19</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3526.08</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3572.48</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3562.59</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3585.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3618.46</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3607.22</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3621.3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3602.93</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3594.24</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3590.38</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3529.16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3595.61</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3583.86</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3581.3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3571.15</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3581.08</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3564.48</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3567.14</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3582.89</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3544.81</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3560.38</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3531.14</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3538.49</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3538.22</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3539.34</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3543.26</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3560.56</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3558.6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3517.68</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3552.39</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3526.9</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3536.34</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3556.85</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3541.75</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3575.94</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3572.12</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3540.53</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3548.98</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3560.68</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3621.08</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3568.83</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3563.27</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3553.08</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3536.11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3552.09</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3549.86</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3594.78</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3554.49</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3535.26</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3530.57</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3544.31</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3594.69</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3533.91</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3553.22</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3550.49</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3584.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3582.34</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3554.35</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3574.7</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3582.68</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3593.42</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3589.85</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3589.01</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3618.74</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3638.01</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3636.4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3639.07</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3625.11</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3646.99</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3639.59</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3638.35</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3648.54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3655.05</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3621.16</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3604.15</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3642.63</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3625.97</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3628.87</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3638.84</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3634.01</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3642.49</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3644.34</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3675.34</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3627.64</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3626.68</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3688.86</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3660.89</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3674.71</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3674.69</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3677.25</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3663.47</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3685.17</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3647.58</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3659.44</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3679.38</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3667.63</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3710.11</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3665.93</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3689.21</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3689.9</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3669.71</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3644.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3633.02</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3606.69</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3653.22</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3657.39</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3622.21</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3637.22</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3656.53</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3645.34</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3633.96</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3603.9</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3636.22</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3597.74</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3657.77</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3629.09</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3657.11</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3684.92</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3688.54</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3652.96</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3660.41</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3675.58</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3692.85</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3678.2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3697.37</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3737.05</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3710.4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3734.15</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3728.33</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3718.12</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3703.76</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3685.45</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3737.99</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3699.98</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3725.04</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3735.37</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3757.12</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3731.57</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3751.98</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3690.18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3709.35</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3758.54</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3686.66</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3700.34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3683.2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3698.3</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3717.74</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3668.87</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3673.05</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3688.24</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3659.58</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3670.65</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3666.05</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3681.23</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3693.67</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3701.15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3700.4</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3706.89</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3735.18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3685.51</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3699.06</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3701.88</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3698.37</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>3713.79</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3726.67</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3709.46</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3682.91</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3761.13</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3739.27</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3744.71</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3757.96</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3718.45</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3751.1</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3588.55</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3613.62</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3607.75</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3600.48</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3610.51</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3625.46</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3588.74</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>3619.9</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3627.29</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3661.14</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3621.64</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3665.86</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3675.36</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3661.1</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3643.5</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3639.81</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3679.09</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3675.87</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3661.89</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3654.65</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3654.33</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3678.54</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3685.83</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3654.07</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3639.27</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3647.95</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3683.57</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3609.61</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>3610.4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3640.62</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>3629.51</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>3656.95</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3622.9</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3602.72</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>3612.2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3632.87</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3628.08</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3630.4</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3654.41</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3605.54</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3613.08</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3646.44</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3652.35</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3629.16</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3662.83</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3656.96</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3650.31</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3627.98</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3652.71</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3639.57</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3650.23</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3629.13</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3645.96</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3653.28</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3668.09</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3678.66</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3654.93</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3678.03</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3666.59</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3719.63</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3701.76</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3698.4</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3723.25</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3676.02</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3700.9</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3702.88</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3666.78</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3688.73</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3699.92</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3702.24</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3687.85</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3727.64</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3734.83</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3719.86</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3765.1</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3755.72</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3750.57</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3750.27</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>3722.32</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3728.14</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3733.08</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>3775.4</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>3753.89</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>3724.81</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>3796.55</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>3767.93</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>3800.08</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>3759.69</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3760.15</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>3758.81</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>3757.75</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>3767.3</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>3782.8</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3771.76</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>3758.87</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>3778.55</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>3757.67</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>3756.08</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>3782.49</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>3833.09</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>3805.28</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>3793.03</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3789.98</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>3788.75</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>3802.59</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>3785.66</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>3812.3</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>3789.36</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>3801.98</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>3788.01</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>3808.64</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>3776.66</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>3768.61</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>3772.71</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>3783.16</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>3785.91</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>3765.72</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>3790.63</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>3803.67</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>3800.06</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>3773.95</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3798.9</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>3792.34</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3829.76</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>3818</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>3795.66</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>3787.89</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>3812.45</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>3803.01</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3824.24</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>3840.03</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>3816.46</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>3837.84</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>3839.98</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3843.16</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>3850.85</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>3856.77</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>3850.74</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>3893.8</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>3830.53</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>3886.9</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>3850.67</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>3857.16</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>3865.23</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>3839.75</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>3874.13</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>3841.92</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>3875.16</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>3866.41</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>3860.92</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>3881.1</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>3872.39</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>3885.11</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3871.8</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>3879.54</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>3895.25</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>3867.87</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>3878.94</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>3889.69</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>3870.59</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>3878.91</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>3900.66</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>3955.63</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>3922.26</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>3883.87</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>3894.09</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>3845.25</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>3865.29</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>3874.33</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>3862.04</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>3876.9</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>3815.19</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>3833.17</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>3826.01</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>3845.41</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>3854.91</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>3854.44</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>3873.29</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>3874.81</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>3819.44</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>3840.52</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>3877.1</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>3890.45</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>3880.33</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>3881.54</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>3896.06</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>3866.27</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>3892.3</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>3910.66</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>3905.31</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>3878.67</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>3890.71</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>3902.96</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>3936.76</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>3920.73</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>3898.27</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>3892.31</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>3882.05</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>3925.07</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>3902.58</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>3917.73</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>3900.8</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>3944.26</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>3892.39</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>3940.48</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>3957.26</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>3947.29</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>3982.81</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>4002.57</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>3966.29</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>3983.61</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>3980.38</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>4023.21</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>3959.73</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>3950.81</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>3991.55</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>3993.84</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>3996.58</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>3988.74</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>3987.08</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>3979</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>3978.66</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>4001.87</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>4013.12</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>3990.41</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>4005.03</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>4008.58</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>4015.96</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>4000.98</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>4016.71</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>3996.74</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>4040.68</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>4029.54</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>4063.91</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>4052.4</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>4071.09</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>4059.55</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>4066.5</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>4069.61</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>4081.99</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>4078.94</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>4057.86</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>4069.12</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>4081.5</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>4090.22</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>4098.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>4097.01</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>4123.3</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>4089.71</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>4093.46</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>4099.42</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>4085.38</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>4089.43</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>4083.21</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>4098.2299999999996</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>4131.54</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>4124.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>4086.08</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>4120.97</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>4090.9</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>4129.74</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>4108.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>4142.04</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>4091.15</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>4086.9</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>4114.24</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>4109.03</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>4107.34</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>4127.7</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>4114.28</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>4091.38</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>4093.54</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>4092.49</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>4061.92</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>4106.07</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>4065.95</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>4065.39</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>4113.47</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>4095.11</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>4066.89</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>4093.73</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>4064.64</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>4016.27</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>4035.09</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>3998.7</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>4067.81</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>4048.13</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>4016.57</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>4022.31</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>4039.66</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>4055.98</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>4050.74</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>4033.88</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>4046.53</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>4051.11</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>4080.59</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>4061.09</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>4078.04</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>4081.92</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>4071.98</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>4063.88</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>4088.17</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>4085.98</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>4048.06</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>4092.08</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>4080.17</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>4098.96</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>4070.05</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>4095.97</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>4125.46</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>4033.75</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>4098.47</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>4095.09</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>4109.41</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>4087.3</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>4021.46</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>4036.1</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>4018.9</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>4070.58</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>4057.87</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>4071.8</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>4074.17</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>4067.23</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>4073.1</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>4072.54</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>4065.75</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>4066.24</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>4099.37</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>4076.44</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>4072.21</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>4078.33</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>4078.96</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>4090.38</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>4062.5</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>4064.59</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>4088.45</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>4054.19</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>4073.79</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>4061.95</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>4049.07</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>4051.99</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>4058.51</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>4030.55</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>4053.84</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>4076.37</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>4129.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>4048.23</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>4084.56</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>4131.51</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>4101.26</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>4073.03</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>4086.49</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>4124.58</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>4118.53</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>4117.49</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>4097.07</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>4094.76</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>4109.75</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>4116.42</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>4155.43</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>4133.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>4095.77</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>4112.92</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>4119.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>4138.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>4089.04</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>4093.33</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>4090.71</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>4129.0200000000004</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>4097.04</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>4034.05</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>4037.39</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>4012.67</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>4019.58</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>4070.28</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>4075.16</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>4074.68</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>4104.87</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>4058.58</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>4028.73</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>4050.81</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>4002.59</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>4021.37</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>3997.31</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>4000.48</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>4013.94</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>4024.88</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>4041.13</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>4022.33</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>4072.93</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>4019.69</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>4026.24</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>3990.44</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>4023.32</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>3994.26</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>4002.04</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>3978.12</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>3988.84</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>3995.87</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>3935.62</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>4000.96</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>3965.48</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>3966.43</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>3961.34</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>3944.6</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>3985.32</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>3976.52</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>3967.38</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>3994.7</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>3988.21</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>3954.34</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>3984.38</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>4017.88</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>4053.82</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>4053.56</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>4003.24</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>4042.07</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>4043.49</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>4027.02</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>4039.42</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>4014.72</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>3985.84</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>4074.97</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>4048.5</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>4098.21</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>4073.28</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>4052.47</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>4073.65</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>4062.69</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>4120.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>4087.29</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>4096.2</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>4086.34</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>4081.42</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>4087.98</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>4079.87</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>4081.55</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>4090.4</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>4108.01</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>4142.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>4109.95</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>4132.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>4103.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>4110.12</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>4116.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>4105.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>4117.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>4178.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>4121.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>4124.96</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>4144.75</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>4152.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>4173.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>4140.92</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>4184.43</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>4170.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>4200.18</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>4197.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>4217.72</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>4259.75</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>4216.9799999999996</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>4227.28</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>4239.53</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>4248.59</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>4233.57</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>4239.8</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>4232.41</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>4233.72</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>4285.93</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>4242.09</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>4268.12</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>4246.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>4240.5</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>4243.83</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>4235.28</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>4264.78</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>4284.74</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>4210.66</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>4231.16</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>4230.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>4283.41</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>4229.12</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>4220.12</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>4220.1099999999997</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>4230.55</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>4245.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>4252.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>4258.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>4216.01</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>4236.25</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>4270.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>4203.79</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>4276.45</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>4261.09</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>4264.91</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>4276.34</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>4281.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>4283.93</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>4279.08</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>4287.78</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>4313.09</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>4302.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>4293.18</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>4347.83</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>4333.33</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>4351.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>4391.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>4405.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>4376.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>4360.24</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>4362.34</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>4360.72</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>4386.67</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>4386.32</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>4389.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>4418.7</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>4380.24</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>4433.24</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>4398.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>4409.21</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>4436.67</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>4414</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>4418.22</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>4409.21</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>4417.21</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>4429.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>4404.59</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>4405.05</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>4429.67</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>4402.67</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>4465.5200000000004</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>4456.29</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>4471.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>4434.57</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>4440.38</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>4467.79</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>4474.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>4491.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>4491.55</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>4513.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>4466.83</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>4467.87</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>4514.2299999999996</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>4486.7</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>4500.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>4475.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>4492.3</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>4518.91</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>4458.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>4491.66</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>4465.58</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>4460.88</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>4512.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>4495.49</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>4495.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>4536.51</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>4547.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>4515.28</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>4527.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>4526.92</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>4567.16</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>4548.07</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>4533.43</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>4555.5</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>4526.28</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>4525.55</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>4485.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>4413.17</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>4408.59</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>4374.88</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>4386.91</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>4362.72</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>4346.51</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>4323.41</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>4339.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>4302.51</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>4287.88</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>4270.25</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>4267.88</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>4264.33</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>4292.55</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>4244.2299999999996</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>4263.7</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>4277.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>4294.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>4202.25</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>4245.6899999999996</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>4239.79</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>4227.57</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>4216.42</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>4202.78</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>4191.41</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>4238.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>4248.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>4248.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>4221.79</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>4217.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>4281.5</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>4280.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>4242.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>4214.46</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>4275.07</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>4189.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>4203.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>4294.95</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>4223.63</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>4219.41</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>4224.54</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>4292.74</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>4238.96</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>4260.0200000000004</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>4231.16</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>4272.91</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>4262.12</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>4326.2</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>4310.5</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>4296.26</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>4351.53</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>4341.25</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>4373.28</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>4351.99</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>4329.01</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>4339.76</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>4370.68</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>4401.58</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>4333.62</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>4375.74</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>4406.12</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>4380.28</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>4399.46</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>4409.92</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>4356.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>4339.34</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>4355.7</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>4356.72</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>4394.53</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>4354.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>4357.91</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>4407.75</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>4416.91</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>4365.53</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>4364.58</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>4387.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>4389.25</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>4376.93</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>4360.2299999999996</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>4353.13</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>4356.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>4377.54</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>4333.5</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>4347.22</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>4377.25</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>4393.63</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>4393.28</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>4388.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>4383.1499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -8548,11 +14424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2104977200"/>
-        <c:axId val="-2104990800"/>
+        <c:axId val="-1115698816"/>
+        <c:axId val="-1115690656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2104977200"/>
+        <c:axId val="-1115698816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8562,12 +14438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104990800"/>
+        <c:crossAx val="-1115690656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104990800"/>
+        <c:axId val="-1115690656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -8580,7 +14456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104977200"/>
+        <c:crossAx val="-1115698816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14819,11 +20695,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2104984816"/>
-        <c:axId val="-2104987536"/>
+        <c:axId val="-1115696640"/>
+        <c:axId val="-1115702080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2104984816"/>
+        <c:axId val="-1115696640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14833,12 +20709,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104987536"/>
+        <c:crossAx val="-1115702080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104987536"/>
+        <c:axId val="-1115702080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -14851,7 +20727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104984816"/>
+        <c:crossAx val="-1115696640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21328,11 +27204,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2104988080"/>
-        <c:axId val="-2104986992"/>
+        <c:axId val="-1115699360"/>
+        <c:axId val="-1115697728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2104988080"/>
+        <c:axId val="-1115699360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21342,12 +27218,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104986992"/>
+        <c:crossAx val="-1115697728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104986992"/>
+        <c:axId val="-1115697728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -21360,7 +27236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104988080"/>
+        <c:crossAx val="-1115699360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24701,7 +30577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AG86" sqref="AG86"/>
     </sheetView>
   </sheetViews>
